--- a/jogadores.xlsx
+++ b/jogadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Documents\INSPER\CiDadosDP\Projetos\Projeto 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A43751-3D9A-4B1D-9B72-2166490D2208}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6028E4-3BD7-446E-94E5-4FAD444CBC43}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="255">
   <si>
     <t>Rank</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Neymar</t>
   </si>
   <si>
-    <t>Extremo Esquerdo</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Lionel Messi</t>
   </si>
   <si>
-    <t>Extremo Direito</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>Harry Kane</t>
   </si>
   <si>
-    <t>Ponta de Lança</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>Kevin De Bruyne</t>
   </si>
   <si>
-    <t>Médio Ofensivo</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>Paulo Dybala</t>
   </si>
   <si>
-    <t>Segundo Avançado</t>
-  </si>
-  <si>
     <t>Antoine Griezmann</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>Paul Pogba</t>
   </si>
   <si>
-    <t>Médio Central</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
@@ -244,9 +226,6 @@
     <t>Sergio Busquets</t>
   </si>
   <si>
-    <t>Médio Defensivo</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
@@ -292,9 +271,6 @@
     <t>Jan Oblak</t>
   </si>
   <si>
-    <t>Guarda-Redes</t>
-  </si>
-  <si>
     <t>Marco Verratti</t>
   </si>
   <si>
@@ -346,15 +322,9 @@
     <t>Raphaël Varane</t>
   </si>
   <si>
-    <t>Defesa Central</t>
-  </si>
-  <si>
     <t>Daniel Carvajal</t>
   </si>
   <si>
-    <t>Lateral Direito</t>
-  </si>
-  <si>
     <t>Lorenzo Insigne</t>
   </si>
   <si>
@@ -373,9 +343,6 @@
     <t>Jordi Alba</t>
   </si>
   <si>
-    <t>Lateral Esquerdo</t>
-  </si>
-  <si>
     <t>Thiago</t>
   </si>
   <si>
@@ -664,9 +631,6 @@
     <t>Carlos Soler</t>
   </si>
   <si>
-    <t>Médio Direito</t>
-  </si>
-  <si>
     <t>Lucas Hernández</t>
   </si>
   <si>
@@ -767,9 +731,6 @@
   </si>
   <si>
     <t>Ryan Sessegnon</t>
-  </si>
-  <si>
-    <t>Médio Esquerdo</t>
   </si>
   <si>
     <t>Amine Harit</t>
@@ -1168,12 +1129,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1191,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1210,620 +1172,620 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>180</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3">
         <v>180</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
       </c>
       <c r="E5">
         <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
+        <v>66</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E21">
         <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
+        <v>74</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -1831,28 +1793,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1860,10 +1822,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
+        <v>79</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
       </c>
       <c r="D27">
         <v>21</v>
@@ -1886,10 +1848,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -1912,10 +1874,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
       </c>
       <c r="D29">
         <v>23</v>
@@ -1938,10 +1900,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -1964,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
       </c>
       <c r="D31">
         <v>25</v>
@@ -1990,10 +1952,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
       </c>
       <c r="D32">
         <v>26</v>
@@ -2016,10 +1978,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
+        <v>85</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
       </c>
       <c r="D33">
         <v>26</v>
@@ -2042,10 +2004,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
+        <v>86</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -2068,10 +2030,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
+        <v>87</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
       </c>
       <c r="D35">
         <v>28</v>
@@ -2094,10 +2056,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
+        <v>88</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -2120,10 +2082,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
+        <v>89</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
       </c>
       <c r="D37">
         <v>23</v>
@@ -2146,10 +2108,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
       </c>
       <c r="D38">
         <v>22</v>
@@ -2172,10 +2134,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
+        <v>91</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
       </c>
       <c r="D39">
         <v>22</v>
@@ -2198,10 +2160,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" t="s">
-        <v>27</v>
+        <v>92</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
       </c>
       <c r="D40">
         <v>25</v>
@@ -2224,10 +2186,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
+        <v>93</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
       </c>
       <c r="D41">
         <v>26</v>
@@ -2250,10 +2212,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" t="s">
-        <v>27</v>
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
       </c>
       <c r="D42">
         <v>28</v>
@@ -2276,10 +2238,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
+        <v>95</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
       </c>
       <c r="D43">
         <v>28</v>
@@ -2302,10 +2264,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
+        <v>96</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
       </c>
       <c r="D44">
         <v>27</v>
@@ -2328,10 +2290,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
+        <v>97</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
       </c>
       <c r="D45">
         <v>26</v>
@@ -2354,10 +2316,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>27</v>
+        <v>98</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
       </c>
       <c r="D46">
         <v>22</v>
@@ -2380,10 +2342,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
       </c>
       <c r="D47">
         <v>25</v>
@@ -2406,10 +2368,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
       </c>
       <c r="D48">
         <v>26</v>
@@ -2432,10 +2394,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
+        <v>101</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
       <c r="D49">
         <v>26</v>
@@ -2458,10 +2420,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -2484,10 +2446,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" t="s">
-        <v>90</v>
+        <v>103</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
       </c>
       <c r="D51">
         <v>26</v>
@@ -2510,10 +2472,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
       </c>
       <c r="D52">
         <v>26</v>
@@ -2536,10 +2498,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" t="s">
-        <v>90</v>
+        <v>105</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
       </c>
       <c r="D53">
         <v>26</v>
@@ -2562,10 +2524,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" t="s">
-        <v>117</v>
+        <v>106</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
       </c>
       <c r="D54">
         <v>29</v>
@@ -2588,10 +2550,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" t="s">
-        <v>56</v>
+        <v>107</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
       </c>
       <c r="D55">
         <v>27</v>
@@ -2614,10 +2576,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" t="s">
-        <v>90</v>
+        <v>108</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
       </c>
       <c r="D56">
         <v>27</v>
@@ -2640,10 +2602,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" t="s">
-        <v>27</v>
+        <v>109</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
       </c>
       <c r="D57">
         <v>31</v>
@@ -2666,10 +2628,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" t="s">
-        <v>27</v>
+        <v>110</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
       </c>
       <c r="D58">
         <v>29</v>
@@ -2692,10 +2654,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
       </c>
       <c r="D59">
         <v>30</v>
@@ -2718,10 +2680,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
       </c>
       <c r="D60">
         <v>29</v>
@@ -2744,10 +2706,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>74</v>
+        <v>113</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
       </c>
       <c r="D61">
         <v>26</v>
@@ -2770,10 +2732,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="s">
-        <v>108</v>
+        <v>114</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
       </c>
       <c r="D62">
         <v>24</v>
@@ -2796,10 +2758,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
       </c>
       <c r="D63">
         <v>23</v>
@@ -2822,10 +2784,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" t="s">
-        <v>27</v>
+        <v>116</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
       </c>
       <c r="D64">
         <v>26</v>
@@ -2848,10 +2810,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" t="s">
-        <v>42</v>
+        <v>117</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
       </c>
       <c r="D65">
         <v>28</v>
@@ -2874,10 +2836,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" t="s">
-        <v>27</v>
+        <v>118</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
       </c>
       <c r="D66">
         <v>20</v>
@@ -2900,10 +2862,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
+        <v>119</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
       </c>
       <c r="D67">
         <v>21</v>
@@ -2926,10 +2888,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" t="s">
-        <v>38</v>
+        <v>120</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
       </c>
       <c r="D68">
         <v>24</v>
@@ -2952,10 +2914,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" t="s">
-        <v>108</v>
+        <v>121</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
       </c>
       <c r="D69">
         <v>23</v>
@@ -2978,10 +2940,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" t="s">
-        <v>108</v>
+        <v>122</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
       </c>
       <c r="D70">
         <v>23</v>
@@ -3004,10 +2966,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" t="s">
-        <v>16</v>
+        <v>123</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
       </c>
       <c r="D71">
         <v>27</v>
@@ -3030,10 +2992,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" t="s">
-        <v>108</v>
+        <v>124</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
       </c>
       <c r="D72">
         <v>26</v>
@@ -3056,10 +3018,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" t="s">
-        <v>42</v>
+        <v>125</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
       </c>
       <c r="D73">
         <v>26</v>
@@ -3082,10 +3044,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" t="s">
-        <v>110</v>
+        <v>126</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
       </c>
       <c r="D74">
         <v>27</v>
@@ -3108,10 +3070,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" t="s">
-        <v>108</v>
+        <v>127</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
       </c>
       <c r="D75">
         <v>26</v>
@@ -3134,10 +3096,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
       </c>
       <c r="D76">
         <v>27</v>
@@ -3160,10 +3122,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" t="s">
-        <v>117</v>
+        <v>129</v>
+      </c>
+      <c r="C77">
+        <v>11</v>
       </c>
       <c r="D77">
         <v>25</v>
@@ -3186,10 +3148,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" t="s">
-        <v>38</v>
+        <v>130</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
       </c>
       <c r="D78">
         <v>29</v>
@@ -3212,10 +3174,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
-      </c>
-      <c r="C79" t="s">
-        <v>56</v>
+        <v>131</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
       </c>
       <c r="D79">
         <v>30</v>
@@ -3238,10 +3200,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" t="s">
-        <v>108</v>
+        <v>132</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
       </c>
       <c r="D80">
         <v>32</v>
@@ -3264,10 +3226,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" t="s">
-        <v>108</v>
+        <v>133</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
       </c>
       <c r="D81">
         <v>31</v>
@@ -3290,10 +3252,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" t="s">
-        <v>27</v>
+        <v>134</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
       </c>
       <c r="D82">
         <v>30</v>
@@ -3316,10 +3278,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
+        <v>135</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
       </c>
       <c r="D83">
         <v>20</v>
@@ -3342,10 +3304,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" t="s">
-        <v>16</v>
+        <v>136</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
       </c>
       <c r="D84">
         <v>21</v>
@@ -3368,10 +3330,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
-      </c>
-      <c r="C85" t="s">
-        <v>16</v>
+        <v>137</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
       </c>
       <c r="D85">
         <v>19</v>
@@ -3394,10 +3356,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" t="s">
-        <v>90</v>
+        <v>138</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
       </c>
       <c r="D86">
         <v>24</v>
@@ -3420,10 +3382,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" t="s">
-        <v>56</v>
+        <v>139</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
       </c>
       <c r="D87">
         <v>23</v>
@@ -3446,10 +3408,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
       </c>
       <c r="D88">
         <v>28</v>
@@ -3472,10 +3434,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89" t="s">
-        <v>90</v>
+        <v>141</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
       </c>
       <c r="D89">
         <v>25</v>
@@ -3498,10 +3460,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" t="s">
-        <v>56</v>
+        <v>142</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
       </c>
       <c r="D90">
         <v>30</v>
@@ -3524,10 +3486,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" t="s">
-        <v>108</v>
+        <v>143</v>
+      </c>
+      <c r="C91">
+        <v>9</v>
       </c>
       <c r="D91">
         <v>29</v>
@@ -3550,10 +3512,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
-      </c>
-      <c r="C92" t="s">
-        <v>108</v>
+        <v>144</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
       </c>
       <c r="D92">
         <v>21</v>
@@ -3576,10 +3538,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
-      </c>
-      <c r="C93" t="s">
-        <v>90</v>
+        <v>145</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
       </c>
       <c r="D93">
         <v>19</v>
@@ -3602,10 +3564,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" t="s">
-        <v>16</v>
+        <v>146</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
       </c>
       <c r="D94">
         <v>23</v>
@@ -3628,10 +3590,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
-      </c>
-      <c r="C95" t="s">
-        <v>74</v>
+        <v>147</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
       </c>
       <c r="D95">
         <v>24</v>
@@ -3654,10 +3616,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" t="s">
-        <v>9</v>
+        <v>148</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
       </c>
       <c r="D96">
         <v>21</v>
@@ -3680,10 +3642,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" t="s">
-        <v>108</v>
+        <v>149</v>
+      </c>
+      <c r="C97">
+        <v>9</v>
       </c>
       <c r="D97">
         <v>23</v>
@@ -3706,10 +3668,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
-      </c>
-      <c r="C98" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
       </c>
       <c r="D98">
         <v>24</v>
@@ -3732,10 +3694,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>162</v>
-      </c>
-      <c r="C99" t="s">
-        <v>108</v>
+        <v>151</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
       </c>
       <c r="D99">
         <v>22</v>
@@ -3758,10 +3720,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
-      </c>
-      <c r="C100" t="s">
-        <v>110</v>
+        <v>152</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
       </c>
       <c r="D100">
         <v>23</v>
@@ -3784,10 +3746,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101" t="s">
-        <v>56</v>
+        <v>153</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
       </c>
       <c r="D101">
         <v>23</v>
@@ -3810,10 +3772,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
-      </c>
-      <c r="C102" t="s">
-        <v>74</v>
+        <v>154</v>
+      </c>
+      <c r="C102">
+        <v>7</v>
       </c>
       <c r="D102">
         <v>23</v>
@@ -3836,10 +3798,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
-      </c>
-      <c r="C103" t="s">
-        <v>27</v>
+        <v>155</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
       </c>
       <c r="D103">
         <v>24</v>
@@ -3862,10 +3824,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>167</v>
-      </c>
-      <c r="C104" t="s">
-        <v>74</v>
+        <v>156</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
       </c>
       <c r="D104">
         <v>24</v>
@@ -3888,10 +3850,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
-      </c>
-      <c r="C105" t="s">
-        <v>27</v>
+        <v>157</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
       </c>
       <c r="D105">
         <v>24</v>
@@ -3914,10 +3876,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
-      </c>
-      <c r="C106" t="s">
-        <v>117</v>
+        <v>158</v>
+      </c>
+      <c r="C106">
+        <v>11</v>
       </c>
       <c r="D106">
         <v>23</v>
@@ -3940,10 +3902,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
-      </c>
-      <c r="C107" t="s">
-        <v>56</v>
+        <v>159</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
       </c>
       <c r="D107">
         <v>23</v>
@@ -3966,10 +3928,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
-      </c>
-      <c r="C108" t="s">
-        <v>108</v>
+        <v>160</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
       </c>
       <c r="D108">
         <v>26</v>
@@ -3992,10 +3954,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
-      </c>
-      <c r="C109" t="s">
-        <v>74</v>
+        <v>161</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
       </c>
       <c r="D109">
         <v>26</v>
@@ -4018,10 +3980,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
-      </c>
-      <c r="C110" t="s">
-        <v>108</v>
+        <v>162</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
       </c>
       <c r="D110">
         <v>25</v>
@@ -4044,10 +4006,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
+        <v>163</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
       </c>
       <c r="D111">
         <v>24</v>
@@ -4070,10 +4032,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
-      </c>
-      <c r="C112" t="s">
-        <v>16</v>
+        <v>164</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
       </c>
       <c r="D112">
         <v>27</v>
@@ -4096,10 +4058,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
-      </c>
-      <c r="C113" t="s">
-        <v>74</v>
+        <v>165</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
       </c>
       <c r="D113">
         <v>29</v>
@@ -4122,10 +4084,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
-      </c>
-      <c r="C114" t="s">
-        <v>108</v>
+        <v>166</v>
+      </c>
+      <c r="C114">
+        <v>9</v>
       </c>
       <c r="D114">
         <v>28</v>
@@ -4148,10 +4110,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
-      </c>
-      <c r="C115" t="s">
-        <v>56</v>
+        <v>167</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
       </c>
       <c r="D115">
         <v>29</v>
@@ -4174,10 +4136,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
-      </c>
-      <c r="C116" t="s">
-        <v>56</v>
+        <v>168</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
       </c>
       <c r="D116">
         <v>27</v>
@@ -4200,10 +4162,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
-      </c>
-      <c r="C117" t="s">
-        <v>16</v>
+        <v>169</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
       </c>
       <c r="D117">
         <v>30</v>
@@ -4226,10 +4188,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>181</v>
-      </c>
-      <c r="C118" t="s">
-        <v>74</v>
+        <v>170</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
       </c>
       <c r="D118">
         <v>29</v>
@@ -4252,10 +4214,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
-      </c>
-      <c r="C119" t="s">
-        <v>108</v>
+        <v>171</v>
+      </c>
+      <c r="C119">
+        <v>9</v>
       </c>
       <c r="D119">
         <v>29</v>
@@ -4278,10 +4240,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
-      </c>
-      <c r="C120" t="s">
-        <v>9</v>
+        <v>172</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
       </c>
       <c r="D120">
         <v>29</v>
@@ -4304,10 +4266,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>184</v>
-      </c>
-      <c r="C121" t="s">
-        <v>56</v>
+        <v>173</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
       </c>
       <c r="D121">
         <v>30</v>
@@ -4330,10 +4292,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
-      </c>
-      <c r="C122" t="s">
-        <v>56</v>
+        <v>174</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
       </c>
       <c r="D122">
         <v>32</v>
@@ -4356,10 +4318,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>186</v>
-      </c>
-      <c r="C123" t="s">
-        <v>9</v>
+        <v>175</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
       </c>
       <c r="D123">
         <v>21</v>
@@ -4382,10 +4344,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
-      </c>
-      <c r="C124" t="s">
-        <v>16</v>
+        <v>176</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -4408,10 +4370,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>188</v>
-      </c>
-      <c r="C125" t="s">
-        <v>108</v>
+        <v>177</v>
+      </c>
+      <c r="C125">
+        <v>9</v>
       </c>
       <c r="D125">
         <v>24</v>
@@ -4434,10 +4396,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
-      </c>
-      <c r="C126" t="s">
-        <v>108</v>
+        <v>178</v>
+      </c>
+      <c r="C126">
+        <v>9</v>
       </c>
       <c r="D126">
         <v>23</v>
@@ -4460,10 +4422,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
-      </c>
-      <c r="C127" t="s">
-        <v>108</v>
+        <v>179</v>
+      </c>
+      <c r="C127">
+        <v>9</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -4486,10 +4448,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
-      </c>
-      <c r="C128" t="s">
-        <v>9</v>
+        <v>180</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
       </c>
       <c r="D128">
         <v>22</v>
@@ -4512,10 +4474,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>192</v>
-      </c>
-      <c r="C129" t="s">
-        <v>56</v>
+        <v>181</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
       </c>
       <c r="D129">
         <v>26</v>
@@ -4538,10 +4500,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>193</v>
-      </c>
-      <c r="C130" t="s">
-        <v>108</v>
+        <v>182</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
       </c>
       <c r="D130">
         <v>22</v>
@@ -4564,10 +4526,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>194</v>
-      </c>
-      <c r="C131" t="s">
-        <v>117</v>
+        <v>183</v>
+      </c>
+      <c r="C131">
+        <v>11</v>
       </c>
       <c r="D131">
         <v>27</v>
@@ -4590,10 +4552,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>195</v>
-      </c>
-      <c r="C132" t="s">
-        <v>16</v>
+        <v>184</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
       </c>
       <c r="D132">
         <v>24</v>
@@ -4616,10 +4578,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>196</v>
-      </c>
-      <c r="C133" t="s">
-        <v>74</v>
+        <v>185</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
       </c>
       <c r="D133">
         <v>25</v>
@@ -4642,10 +4604,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>197</v>
-      </c>
-      <c r="C134" t="s">
-        <v>108</v>
+        <v>186</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
       </c>
       <c r="D134">
         <v>27</v>
@@ -4668,10 +4630,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>198</v>
-      </c>
-      <c r="C135" t="s">
-        <v>108</v>
+        <v>187</v>
+      </c>
+      <c r="C135">
+        <v>9</v>
       </c>
       <c r="D135">
         <v>26</v>
@@ -4694,10 +4656,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>199</v>
-      </c>
-      <c r="C136" t="s">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
       </c>
       <c r="D136">
         <v>25</v>
@@ -4720,10 +4682,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>200</v>
-      </c>
-      <c r="C137" t="s">
-        <v>38</v>
+        <v>189</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
       </c>
       <c r="D137">
         <v>29</v>
@@ -4746,10 +4708,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>201</v>
-      </c>
-      <c r="C138" t="s">
-        <v>108</v>
+        <v>190</v>
+      </c>
+      <c r="C138">
+        <v>9</v>
       </c>
       <c r="D138">
         <v>32</v>
@@ -4772,10 +4734,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>202</v>
-      </c>
-      <c r="C139" t="s">
-        <v>108</v>
+        <v>191</v>
+      </c>
+      <c r="C139">
+        <v>9</v>
       </c>
       <c r="D139">
         <v>30</v>
@@ -4798,10 +4760,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>203</v>
-      </c>
-      <c r="C140" t="s">
-        <v>108</v>
+        <v>192</v>
+      </c>
+      <c r="C140">
+        <v>9</v>
       </c>
       <c r="D140">
         <v>31</v>
@@ -4824,10 +4786,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>204</v>
-      </c>
-      <c r="C141" t="s">
-        <v>56</v>
+        <v>193</v>
+      </c>
+      <c r="C141">
+        <v>6</v>
       </c>
       <c r="D141">
         <v>31</v>
@@ -4850,10 +4812,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>205</v>
-      </c>
-      <c r="C142" t="s">
-        <v>9</v>
+        <v>194</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
       </c>
       <c r="D142">
         <v>28</v>
@@ -4876,10 +4838,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>206</v>
-      </c>
-      <c r="C143" t="s">
-        <v>90</v>
+        <v>195</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
       </c>
       <c r="D143">
         <v>32</v>
@@ -4902,10 +4864,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>207</v>
-      </c>
-      <c r="C144" t="s">
-        <v>56</v>
+        <v>196</v>
+      </c>
+      <c r="C144">
+        <v>6</v>
       </c>
       <c r="D144">
         <v>31</v>
@@ -4928,10 +4890,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>208</v>
-      </c>
-      <c r="C145" t="s">
-        <v>56</v>
+        <v>197</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
       </c>
       <c r="D145">
         <v>25</v>
@@ -4954,10 +4916,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>209</v>
-      </c>
-      <c r="C146" t="s">
-        <v>108</v>
+        <v>198</v>
+      </c>
+      <c r="C146">
+        <v>9</v>
       </c>
       <c r="D146">
         <v>27</v>
@@ -4980,10 +4942,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>210</v>
-      </c>
-      <c r="C147" t="s">
-        <v>27</v>
+        <v>199</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
       </c>
       <c r="D147">
         <v>31</v>
@@ -5006,10 +4968,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>211</v>
-      </c>
-      <c r="C148" t="s">
-        <v>16</v>
+        <v>200</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
       </c>
       <c r="D148">
         <v>29</v>
@@ -5032,10 +4994,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>212</v>
-      </c>
-      <c r="C149" t="s">
-        <v>108</v>
+        <v>201</v>
+      </c>
+      <c r="C149">
+        <v>9</v>
       </c>
       <c r="D149">
         <v>31</v>
@@ -5058,10 +5020,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>213</v>
-      </c>
-      <c r="C150" t="s">
-        <v>214</v>
+        <v>202</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
       </c>
       <c r="D150">
         <v>21</v>
@@ -5084,10 +5046,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>215</v>
-      </c>
-      <c r="C151" t="s">
-        <v>117</v>
+        <v>203</v>
+      </c>
+      <c r="C151">
+        <v>11</v>
       </c>
       <c r="D151">
         <v>22</v>
@@ -5110,10 +5072,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>216</v>
-      </c>
-      <c r="C152" t="s">
-        <v>16</v>
+        <v>204</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
       </c>
       <c r="D152">
         <v>23</v>
@@ -5136,10 +5098,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>217</v>
-      </c>
-      <c r="C153" t="s">
-        <v>16</v>
+        <v>205</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
       </c>
       <c r="D153">
         <v>23</v>
@@ -5162,10 +5124,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>218</v>
-      </c>
-      <c r="C154" t="s">
-        <v>9</v>
+        <v>206</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
       </c>
       <c r="D154">
         <v>23</v>
@@ -5188,10 +5150,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>219</v>
-      </c>
-      <c r="C155" t="s">
-        <v>110</v>
+        <v>207</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
       </c>
       <c r="D155">
         <v>24</v>
@@ -5214,10 +5176,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>220</v>
-      </c>
-      <c r="C156" t="s">
-        <v>117</v>
+        <v>208</v>
+      </c>
+      <c r="C156">
+        <v>11</v>
       </c>
       <c r="D156">
         <v>22</v>
@@ -5240,10 +5202,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>221</v>
-      </c>
-      <c r="C157" t="s">
-        <v>74</v>
+        <v>209</v>
+      </c>
+      <c r="C157">
+        <v>7</v>
       </c>
       <c r="D157">
         <v>22</v>
@@ -5266,10 +5228,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>222</v>
-      </c>
-      <c r="C158" t="s">
-        <v>108</v>
+        <v>210</v>
+      </c>
+      <c r="C158">
+        <v>9</v>
       </c>
       <c r="D158">
         <v>22</v>
@@ -5292,10 +5254,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>223</v>
-      </c>
-      <c r="C159" t="s">
-        <v>27</v>
+        <v>211</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
       </c>
       <c r="D159">
         <v>27</v>
@@ -5318,10 +5280,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>224</v>
-      </c>
-      <c r="C160" t="s">
-        <v>56</v>
+        <v>212</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
       </c>
       <c r="D160">
         <v>24</v>
@@ -5344,10 +5306,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>225</v>
-      </c>
-      <c r="C161" t="s">
-        <v>9</v>
+        <v>213</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
       </c>
       <c r="D161">
         <v>24</v>
@@ -5370,10 +5332,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>226</v>
-      </c>
-      <c r="C162" t="s">
-        <v>56</v>
+        <v>214</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
       </c>
       <c r="D162">
         <v>28</v>
@@ -5396,10 +5358,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>227</v>
-      </c>
-      <c r="C163" t="s">
-        <v>38</v>
+        <v>215</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
       </c>
       <c r="D163">
         <v>28</v>
@@ -5422,10 +5384,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>228</v>
-      </c>
-      <c r="C164" t="s">
-        <v>74</v>
+        <v>216</v>
+      </c>
+      <c r="C164">
+        <v>7</v>
       </c>
       <c r="D164">
         <v>26</v>
@@ -5448,10 +5410,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>229</v>
-      </c>
-      <c r="C165" t="s">
-        <v>74</v>
+        <v>217</v>
+      </c>
+      <c r="C165">
+        <v>7</v>
       </c>
       <c r="D165">
         <v>29</v>
@@ -5474,10 +5436,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
-      </c>
-      <c r="C166" t="s">
-        <v>56</v>
+        <v>218</v>
+      </c>
+      <c r="C166">
+        <v>6</v>
       </c>
       <c r="D166">
         <v>27</v>
@@ -5500,10 +5462,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>231</v>
-      </c>
-      <c r="C167" t="s">
-        <v>56</v>
+        <v>219</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
       </c>
       <c r="D167">
         <v>24</v>
@@ -5526,10 +5488,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>232</v>
-      </c>
-      <c r="C168" t="s">
-        <v>117</v>
+        <v>220</v>
+      </c>
+      <c r="C168">
+        <v>11</v>
       </c>
       <c r="D168">
         <v>27</v>
@@ -5552,10 +5514,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>233</v>
-      </c>
-      <c r="C169" t="s">
-        <v>56</v>
+        <v>221</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
       </c>
       <c r="D169">
         <v>27</v>
@@ -5578,10 +5540,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>234</v>
-      </c>
-      <c r="C170" t="s">
-        <v>38</v>
+        <v>222</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
       </c>
       <c r="D170">
         <v>30</v>
@@ -5604,10 +5566,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>235</v>
-      </c>
-      <c r="C171" t="s">
-        <v>38</v>
+        <v>223</v>
+      </c>
+      <c r="C171">
+        <v>4</v>
       </c>
       <c r="D171">
         <v>32</v>
@@ -5630,10 +5592,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>236</v>
-      </c>
-      <c r="C172" t="s">
-        <v>56</v>
+        <v>224</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
       </c>
       <c r="D172">
         <v>31</v>
@@ -5656,10 +5618,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>237</v>
-      </c>
-      <c r="C173" t="s">
-        <v>16</v>
+        <v>225</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
       </c>
       <c r="D173">
         <v>25</v>
@@ -5682,10 +5644,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>238</v>
-      </c>
-      <c r="C174" t="s">
-        <v>9</v>
+        <v>226</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
       </c>
       <c r="D174">
         <v>24</v>
@@ -5708,10 +5670,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>239</v>
-      </c>
-      <c r="C175" t="s">
-        <v>74</v>
+        <v>227</v>
+      </c>
+      <c r="C175">
+        <v>7</v>
       </c>
       <c r="D175">
         <v>24</v>
@@ -5734,10 +5696,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>240</v>
-      </c>
-      <c r="C176" t="s">
-        <v>16</v>
+        <v>228</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
       </c>
       <c r="D176">
         <v>29</v>
@@ -5760,10 +5722,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>241</v>
-      </c>
-      <c r="C177" t="s">
-        <v>108</v>
+        <v>229</v>
+      </c>
+      <c r="C177">
+        <v>9</v>
       </c>
       <c r="D177">
         <v>26</v>
@@ -5786,10 +5748,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>242</v>
-      </c>
-      <c r="C178" t="s">
-        <v>16</v>
+        <v>230</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
       </c>
       <c r="D178">
         <v>25</v>
@@ -5812,10 +5774,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>243</v>
-      </c>
-      <c r="C179" t="s">
-        <v>108</v>
+        <v>231</v>
+      </c>
+      <c r="C179">
+        <v>9</v>
       </c>
       <c r="D179">
         <v>31</v>
@@ -5838,10 +5800,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>244</v>
-      </c>
-      <c r="C180" t="s">
-        <v>56</v>
+        <v>232</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
       </c>
       <c r="D180">
         <v>31</v>
@@ -5864,10 +5826,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>245</v>
-      </c>
-      <c r="C181" t="s">
-        <v>38</v>
+        <v>233</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
       </c>
       <c r="D181">
         <v>25</v>
@@ -5890,10 +5852,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>246</v>
-      </c>
-      <c r="C182" t="s">
-        <v>27</v>
+        <v>234</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
       </c>
       <c r="D182">
         <v>20</v>
@@ -5916,10 +5878,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>247</v>
-      </c>
-      <c r="C183" t="s">
-        <v>56</v>
+        <v>235</v>
+      </c>
+      <c r="C183">
+        <v>6</v>
       </c>
       <c r="D183">
         <v>19</v>
@@ -5942,10 +5904,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>248</v>
-      </c>
-      <c r="C184" t="s">
-        <v>249</v>
+        <v>236</v>
+      </c>
+      <c r="C184">
+        <v>13</v>
       </c>
       <c r="D184">
         <v>18</v>
@@ -5968,10 +5930,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>250</v>
-      </c>
-      <c r="C185" t="s">
-        <v>38</v>
+        <v>237</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
       </c>
       <c r="D185">
         <v>20</v>
@@ -5994,10 +5956,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>251</v>
-      </c>
-      <c r="C186" t="s">
-        <v>38</v>
+        <v>238</v>
+      </c>
+      <c r="C186">
+        <v>4</v>
       </c>
       <c r="D186">
         <v>22</v>
@@ -6020,10 +5982,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>252</v>
-      </c>
-      <c r="C187" t="s">
-        <v>74</v>
+        <v>239</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
       </c>
       <c r="D187">
         <v>21</v>
@@ -6046,10 +6008,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>253</v>
-      </c>
-      <c r="C188" t="s">
-        <v>108</v>
+        <v>240</v>
+      </c>
+      <c r="C188">
+        <v>9</v>
       </c>
       <c r="D188">
         <v>22</v>
@@ -6072,10 +6034,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>254</v>
-      </c>
-      <c r="C189" t="s">
-        <v>108</v>
+        <v>241</v>
+      </c>
+      <c r="C189">
+        <v>9</v>
       </c>
       <c r="D189">
         <v>19</v>
@@ -6098,10 +6060,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>255</v>
-      </c>
-      <c r="C190" t="s">
-        <v>108</v>
+        <v>242</v>
+      </c>
+      <c r="C190">
+        <v>9</v>
       </c>
       <c r="D190">
         <v>18</v>
@@ -6124,10 +6086,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>256</v>
-      </c>
-      <c r="C191" t="s">
-        <v>74</v>
+        <v>243</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
       </c>
       <c r="D191">
         <v>22</v>
@@ -6150,10 +6112,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>257</v>
-      </c>
-      <c r="C192" t="s">
-        <v>38</v>
+        <v>244</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
       </c>
       <c r="D192">
         <v>18</v>
@@ -6176,10 +6138,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>258</v>
-      </c>
-      <c r="C193" t="s">
-        <v>56</v>
+        <v>245</v>
+      </c>
+      <c r="C193">
+        <v>6</v>
       </c>
       <c r="D193">
         <v>21</v>
@@ -6202,10 +6164,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>259</v>
-      </c>
-      <c r="C194" t="s">
-        <v>110</v>
+        <v>246</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
       </c>
       <c r="D194">
         <v>22</v>
@@ -6228,10 +6190,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>260</v>
-      </c>
-      <c r="C195" t="s">
-        <v>56</v>
+        <v>247</v>
+      </c>
+      <c r="C195">
+        <v>6</v>
       </c>
       <c r="D195">
         <v>21</v>
@@ -6254,10 +6216,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>261</v>
-      </c>
-      <c r="C196" t="s">
-        <v>16</v>
+        <v>248</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
       </c>
       <c r="D196">
         <v>26</v>
@@ -6280,10 +6242,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>262</v>
-      </c>
-      <c r="C197" t="s">
-        <v>27</v>
+        <v>249</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
       </c>
       <c r="D197">
         <v>22</v>
@@ -6306,10 +6268,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>263</v>
-      </c>
-      <c r="C198" t="s">
-        <v>108</v>
+        <v>250</v>
+      </c>
+      <c r="C198">
+        <v>9</v>
       </c>
       <c r="D198">
         <v>24</v>
@@ -6332,10 +6294,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>264</v>
-      </c>
-      <c r="C199" t="s">
-        <v>108</v>
+        <v>251</v>
+      </c>
+      <c r="C199">
+        <v>9</v>
       </c>
       <c r="D199">
         <v>23</v>
@@ -6358,10 +6320,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>265</v>
-      </c>
-      <c r="C200" t="s">
-        <v>110</v>
+        <v>252</v>
+      </c>
+      <c r="C200">
+        <v>10</v>
       </c>
       <c r="D200">
         <v>23</v>
@@ -6384,10 +6346,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>266</v>
-      </c>
-      <c r="C201" t="s">
-        <v>56</v>
+        <v>253</v>
+      </c>
+      <c r="C201">
+        <v>6</v>
       </c>
       <c r="D201">
         <v>24</v>
